--- a/luckyrabbitsfoot_scripts.xlsx
+++ b/luckyrabbitsfoot_scripts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\PJB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\Last-Requiem-Varco-Voice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13710" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="scripts" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="3287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5227" uniqueCount="3289">
   <si>
     <t>filename</t>
   </si>
@@ -9922,6 +9922,14 @@
   </si>
   <si>
     <t>gares_rage_item1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_fm_steps</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -10258,10 +10266,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10270,7 +10278,7 @@
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10286,8 +10294,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75">
+      <c r="F1" s="7" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75">
       <c r="A2" s="7" t="s">
         <v>3285</v>
       </c>
@@ -10303,8 +10317,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>3286</v>
       </c>
@@ -10319,6 +10339,12 @@
       </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -10334,7 +10360,7 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
